--- a/Upload Data/Listening Exercise/Part 2/Test 3/Test3.xlsx
+++ b/Upload Data/Listening Exercise/Part 2/Test 3/Test3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL5\PBL5-LPToeic\Upload Data\Listening Exercise\Part 2\Test 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL5\PBL5-LPToeic\Upload Data\Listening Exercise\Part 2\Test 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E50ED76-66CC-480F-87A4-E1BB5DFD2F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3325C05A-E608-4067-92CA-D4395D6F79D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C29EC6F-1CD6-4F4D-9FEE-11A1FE1D594D}"/>
   </bookViews>
@@ -71,83 +71,83 @@
     <t>C</t>
   </si>
   <si>
-    <t xml:space="preserve">Transcript:
-Where was the company picnic held?
-(A) In April.
-(B) Refreshments will be provided.
-(C) At a park next to a lake.
+    <t>cau2.mp3</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>cau3.mp3</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>cau4.mp3</t>
+  </si>
+  <si>
+    <t>cau5.mp3</t>
+  </si>
+  <si>
+    <t>Transcript:
+Why did the subway stop running early tonight?
+(A) Because it’s a holiday.
+(B) Let’s get off at the next station.
+(C) No, I won’t be running tomorrow.
 Bản dịch: 
-Chuyến dã ngoại của công ty được tổ chức ở đâu?
-(A) Vào tháng Tư.
-(B) Đồ giải khát sẽ được cung cấp.
-(C) Tại một công viên cạnh hồ.
-</t>
-  </si>
-  <si>
-    <t>cau2.mp3</t>
-  </si>
-  <si>
-    <t>B</t>
+Tại sao tối nay tàu điện ngầm ngừng chạy sớm?
+(A) Bởi vì đó là ngày nghỉ lễ.
+(B) Hãy xuống ở ga tiếp theo.
+(C) Không, ngày mai tôi sẽ không chạy.</t>
   </si>
   <si>
     <t>Transcript:
-Who’s working at the front desk today?
-(A) That’s a difficult request.
-(B) It’s Katie Miller.
-(C) Make room on your desk.
+How was the museum tour?
+(A) The window faces toward the street.
+(B) Between Williams street and Keller Avenue.
+(C) It was very informative.
 Bản dịch:
-Hôm nay ai làm việc ở quầy lễ tân?
-(A) Đó là một yêu cầu khó khăn.
-(B) Đó là Katie Miller.
-(C) Hãy dọn chỗ trên bàn làm việc của bạn.</t>
-  </si>
-  <si>
-    <t>cau3.mp3</t>
-  </si>
-  <si>
-    <t>A</t>
+Chuyến tham quan bảo tàng thế nào?
+(A) Cửa sổ hướng ra đường.
+(B) Giữa phố Williams và Đại lộ Keller.
+(C) Nó rất nhiều thông tin.</t>
   </si>
   <si>
     <t>Transcript:
-Would you like to work together or separately?
-(A) Actually, I prefer working alone.
-(B) Let’s gather the company’s data.
-(C) Before next Friday.
+Why weren’t the flyers ready in time for the event?
+(A) They’re not frequent flyers.
+(B) The copier malfunctioned.
+(C) It was the company’s 40th anniversary.
 Bản dịch: 
-Bạn muốn làm việc cùng nhau hay riêng biệt?
-(A) Thực ra, tôi thích làm việc một mình hơn.
-(B) Hãy thu thập dữ liệu của công ty.
-(C) Trước hôm thứ Sáu tới.</t>
-  </si>
-  <si>
-    <t>cau4.mp3</t>
+Tại sao tờ rơi không được chuẩn bị kịp thời cho sự kiện?
+(A) Đó không phải tờ in thường. 
+(B) Máy photocopy bị trục trặc.
+(C) Đó là lễ kỷ niệm 40 năm thành lập công ty.</t>
   </si>
   <si>
     <t>Transcript:
-Have you introduced yourself to the new employee?
-(A) A new reward system will be introduced soon.
-(B) No, I’ve been too busy today.
-(C) Nice to meet you.
-Bản dịch:
-Bạn đã giới thiệu bản thân với nhân viên mới chưa?
-(A) Một hệ thống khen thưởng mới sẽ sớm được giới thiệu.
-(B) Không, hôm nay tôi quá bận.
-(C) Rất vui được gặp bạn.</t>
-  </si>
-  <si>
-    <t>cau5.mp3</t>
-  </si>
-  <si>
-    <t>Transcript:
-Where does this bus go to?
-(A) You need a transit card.
-(B) The bus stop is over there.
-(C) It is headed downtown.
-Bản dịch:
-Xe buýt này đi đến đâu?
-(A) Bạn cần thẻ chuyển tuyến.
-(B) Trạm xe buýt ở đằng kia.
-(C) Nó hướng về trung tâm thành phố.</t>
+Who’s speaking at tonight’s opening ceremony?
+(A) Front row seats.
+(B) Mr. Gibson will close the door.
+(C) A famous novelist.
+Bản dịch: 
+Ai sẽ phát biểu tại lễ khai mạc tối nay?
+(A) Hàng ghế trước.
+(B) Ông Gibson sẽ đóng cửa lại.
+(C) Một tiểu thuyết gia nổi tiếng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Transcript:
+When should I turn on the air conditioner?
+(A) When it reaches 25 degrees.
+(B) I agree with you.
+(C) They’ll be on air in about an hour.
+Bản dịch: 
+Khi nào nên bật điều hòa?
+(A) Khi nhiệt độ đạt tới 25 độ.
+(B) Tôi đồng ý với bạn.
+(C) Chúng sẽ được phát sóng trong khoảng một giờ nữa.</t>
   </si>
 </sst>
 </file>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2399E613-B6A2-4728-A8D9-7D4F2BE7E4C1}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,7 +580,7 @@
     <col min="6" max="6" width="58.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,15 +614,15 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -634,15 +634,15 @@
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -654,15 +654,15 @@
         <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -674,15 +674,15 @@
         <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
@@ -694,7 +694,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>21</v>

--- a/Upload Data/Listening Exercise/Part 2/Test 3/Test3.xlsx
+++ b/Upload Data/Listening Exercise/Part 2/Test 3/Test3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL5\PBL5-LPToeic\Upload Data\Listening Exercise\Part 2\Test 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL5\PBL5-LPToeic\Upload Data\Listening Exercise\Part 2\Test 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3325C05A-E608-4067-92CA-D4395D6F79D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E50ED76-66CC-480F-87A4-E1BB5DFD2F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C29EC6F-1CD6-4F4D-9FEE-11A1FE1D594D}"/>
   </bookViews>
@@ -71,83 +71,83 @@
     <t>C</t>
   </si>
   <si>
+    <t xml:space="preserve">Transcript:
+Where was the company picnic held?
+(A) In April.
+(B) Refreshments will be provided.
+(C) At a park next to a lake.
+Bản dịch: 
+Chuyến dã ngoại của công ty được tổ chức ở đâu?
+(A) Vào tháng Tư.
+(B) Đồ giải khát sẽ được cung cấp.
+(C) Tại một công viên cạnh hồ.
+</t>
+  </si>
+  <si>
     <t>cau2.mp3</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
+    <t>Transcript:
+Who’s working at the front desk today?
+(A) That’s a difficult request.
+(B) It’s Katie Miller.
+(C) Make room on your desk.
+Bản dịch:
+Hôm nay ai làm việc ở quầy lễ tân?
+(A) Đó là một yêu cầu khó khăn.
+(B) Đó là Katie Miller.
+(C) Hãy dọn chỗ trên bàn làm việc của bạn.</t>
+  </si>
+  <si>
     <t>cau3.mp3</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
+    <t>Transcript:
+Would you like to work together or separately?
+(A) Actually, I prefer working alone.
+(B) Let’s gather the company’s data.
+(C) Before next Friday.
+Bản dịch: 
+Bạn muốn làm việc cùng nhau hay riêng biệt?
+(A) Thực ra, tôi thích làm việc một mình hơn.
+(B) Hãy thu thập dữ liệu của công ty.
+(C) Trước hôm thứ Sáu tới.</t>
+  </si>
+  <si>
     <t>cau4.mp3</t>
   </si>
   <si>
+    <t>Transcript:
+Have you introduced yourself to the new employee?
+(A) A new reward system will be introduced soon.
+(B) No, I’ve been too busy today.
+(C) Nice to meet you.
+Bản dịch:
+Bạn đã giới thiệu bản thân với nhân viên mới chưa?
+(A) Một hệ thống khen thưởng mới sẽ sớm được giới thiệu.
+(B) Không, hôm nay tôi quá bận.
+(C) Rất vui được gặp bạn.</t>
+  </si>
+  <si>
     <t>cau5.mp3</t>
   </si>
   <si>
     <t>Transcript:
-Why did the subway stop running early tonight?
-(A) Because it’s a holiday.
-(B) Let’s get off at the next station.
-(C) No, I won’t be running tomorrow.
-Bản dịch: 
-Tại sao tối nay tàu điện ngầm ngừng chạy sớm?
-(A) Bởi vì đó là ngày nghỉ lễ.
-(B) Hãy xuống ở ga tiếp theo.
-(C) Không, ngày mai tôi sẽ không chạy.</t>
-  </si>
-  <si>
-    <t>Transcript:
-How was the museum tour?
-(A) The window faces toward the street.
-(B) Between Williams street and Keller Avenue.
-(C) It was very informative.
+Where does this bus go to?
+(A) You need a transit card.
+(B) The bus stop is over there.
+(C) It is headed downtown.
 Bản dịch:
-Chuyến tham quan bảo tàng thế nào?
-(A) Cửa sổ hướng ra đường.
-(B) Giữa phố Williams và Đại lộ Keller.
-(C) Nó rất nhiều thông tin.</t>
-  </si>
-  <si>
-    <t>Transcript:
-Why weren’t the flyers ready in time for the event?
-(A) They’re not frequent flyers.
-(B) The copier malfunctioned.
-(C) It was the company’s 40th anniversary.
-Bản dịch: 
-Tại sao tờ rơi không được chuẩn bị kịp thời cho sự kiện?
-(A) Đó không phải tờ in thường. 
-(B) Máy photocopy bị trục trặc.
-(C) Đó là lễ kỷ niệm 40 năm thành lập công ty.</t>
-  </si>
-  <si>
-    <t>Transcript:
-Who’s speaking at tonight’s opening ceremony?
-(A) Front row seats.
-(B) Mr. Gibson will close the door.
-(C) A famous novelist.
-Bản dịch: 
-Ai sẽ phát biểu tại lễ khai mạc tối nay?
-(A) Hàng ghế trước.
-(B) Ông Gibson sẽ đóng cửa lại.
-(C) Một tiểu thuyết gia nổi tiếng.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Transcript:
-When should I turn on the air conditioner?
-(A) When it reaches 25 degrees.
-(B) I agree with you.
-(C) They’ll be on air in about an hour.
-Bản dịch: 
-Khi nào nên bật điều hòa?
-(A) Khi nhiệt độ đạt tới 25 độ.
-(B) Tôi đồng ý với bạn.
-(C) Chúng sẽ được phát sóng trong khoảng một giờ nữa.</t>
+Xe buýt này đi đến đâu?
+(A) Bạn cần thẻ chuyển tuyến.
+(B) Trạm xe buýt ở đằng kia.
+(C) Nó hướng về trung tâm thành phố.</t>
   </si>
 </sst>
 </file>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2399E613-B6A2-4728-A8D9-7D4F2BE7E4C1}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,7 +580,7 @@
     <col min="6" max="6" width="58.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,15 +614,15 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -634,15 +634,15 @@
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -654,15 +654,15 @@
         <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -674,15 +674,15 @@
         <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
@@ -694,7 +694,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>21</v>
